--- a/silver_rate_live.xlsx
+++ b/silver_rate_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My-Doc\RR\mp-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504FF96D-22AA-44D0-B158-2F5680B89F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B441A18-5052-4D8D-855A-A6C7B4CDD095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{23778216-5FDA-450A-A1B5-CB35B876D930}"/>
   </bookViews>
@@ -680,7 +680,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +725,7 @@
       <c r="J3" s="11"/>
       <c r="M3" s="12">
         <f ca="1">NOW()</f>
-        <v>45282.612571874997</v>
+        <v>45282.971075578702</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -750,7 +750,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="14">
         <f>Sheet2!C16+500</f>
-        <v>77527</v>
+        <v>77071</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="6"/>
@@ -773,7 +773,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="14">
         <f>Sheet2!C16-1500</f>
-        <v>75527</v>
+        <v>75071</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="7"/>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>2053</v>
+        <v>2054.9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,7 +885,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>24.521000000000001</v>
+        <v>24.312000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>83.18</v>
+        <v>83.16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -912,7 +912,7 @@
         <v>999</v>
       </c>
       <c r="C15">
-        <v>64669</v>
+        <v>64775</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
         <v>999</v>
       </c>
       <c r="C16">
-        <v>77027</v>
+        <v>76571</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/silver_rate_live.xlsx
+++ b/silver_rate_live.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My-Doc\RR\mp-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B441A18-5052-4D8D-855A-A6C7B4CDD095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EC4FD8-02C3-413B-BBEB-FB44CB1EEB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{23778216-5FDA-450A-A1B5-CB35B876D930}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>Silver Rate</t>
   </si>
   <si>
-    <t>© Copyright 2023 Manokamana Gold, All right reserved.      0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Selling Rate </t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>999           :-</t>
+  </si>
+  <si>
+    <t>© Copyright 2024 Manokamana Gold, All right reserved.      0</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3:Q3"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +725,7 @@
       <c r="J3" s="11"/>
       <c r="M3" s="12">
         <f ca="1">NOW()</f>
-        <v>45282.971075578702</v>
+        <v>45332.550634259256</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -738,19 +738,19 @@
     <row r="5" spans="1:19" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="E5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="14">
         <f>Sheet2!C16+500</f>
-        <v>77071</v>
+        <v>73200</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="6"/>
@@ -761,19 +761,19 @@
     <row r="7" spans="1:19" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="E7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="14">
         <f>Sheet2!C16-1500</f>
-        <v>75071</v>
+        <v>71200</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="7"/>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>2054.9</v>
+        <v>2025.4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,7 +885,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>24.312000000000001</v>
+        <v>22.620999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>83.16</v>
+        <v>83.04</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -912,7 +912,7 @@
         <v>999</v>
       </c>
       <c r="C15">
-        <v>64775</v>
+        <v>64320</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -923,12 +923,12 @@
         <v>999</v>
       </c>
       <c r="C16">
-        <v>76571</v>
+        <v>72700</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
